--- a/data/case1/20/V1_14.xlsx
+++ b/data/case1/20/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999340961532</v>
+        <v>0.9999999945686564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99755398165725806</v>
+        <v>0.99817057862474745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99335210116103612</v>
+        <v>0.99197263649637768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99613130341527256</v>
+        <v>0.99327596452985389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98575906181291484</v>
+        <v>0.98137576892656098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96080453118001818</v>
+        <v>0.95251692698866008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95616386373429652</v>
+        <v>0.94984072761529992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94988926913793681</v>
+        <v>0.94637472550573865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94308616586655825</v>
+        <v>0.94817779625088539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93719884250455188</v>
+        <v>0.95096026816593371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93637349904934797</v>
+        <v>0.95152081752405993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93505891795681895</v>
+        <v>0.95110454821094859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92377277635870381</v>
+        <v>0.95041237075784368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91960562701963344</v>
+        <v>0.95071501791483259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91701423981063679</v>
+        <v>0.94812392405350354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91450781237946721</v>
+        <v>0.94561770765467679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.91079994946213194</v>
+        <v>0.94191004832525038</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90969104060677508</v>
+        <v>0.94080114554307048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99430341766691255</v>
+        <v>0.99711736930638351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98718637993066927</v>
+        <v>0.99000035946713871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98578789343063811</v>
+        <v>0.98860187159373292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98452338800568184</v>
+        <v>0.98733736851654208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9863179226849963</v>
+        <v>0.98493834444107442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97329767420463131</v>
+        <v>0.97191798516615324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96684078313339827</v>
+        <v>0.96546107352209121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95827979212687275</v>
+        <v>0.94659107841376522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95500892960676453</v>
+        <v>0.94174561962528514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94103459189324035</v>
+        <v>0.92027635848831457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93132408698643587</v>
+        <v>0.90500625560284687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92745035413918231</v>
+        <v>0.89843609747833897</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92690817534944325</v>
+        <v>0.8907824422276488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92522890312102157</v>
+        <v>0.88910311290450816</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92470889911068865</v>
+        <v>0.88858310167505161</v>
       </c>
     </row>
   </sheetData>
